--- a/metatrip/public/uploads/voyOrg.xlsx
+++ b/metatrip/public/uploads/voyOrg.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3">
-        <v>369</v>
+        <v>3692</v>
       </c>
     </row>
   </sheetData>
